--- a/storage/30-04-2024/PALMARES PRODUIT 30-04-2024.xlsx
+++ b/storage/30-04-2024/PALMARES PRODUIT 30-04-2024.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,8 +450,8 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="10.8" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="15.6" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,103 +467,103 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>QTE</t>
+          <t>QUANTITE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MONTANT</t>
+          <t>MONTANT TTC</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BLPCG001</t>
+          <t>BAF008</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BLANC DE POULET CONGELE</t>
+          <t>RIBEYE / ENTRECOTE</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3.4</v>
+        <v>3.134</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>98600</v>
+        <v>173968.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BBQS0001</t>
+          <t>BLPCG001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BBQ SAUSAGE / SAUCISSE BBQ</t>
+          <t>BLANC DE POULET CONGELE</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.824</v>
+        <v>3.4</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>54911.36</v>
+        <v>98600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>LAML0001</t>
+          <t>MERL0001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>LAMB LEG CHOPS / GIGOT TRANCHE</t>
+          <t xml:space="preserve"> LAMB MERGUEZ / MERGUEZ D'AGNEAU </t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.6879999999999999</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>42621.6</v>
+        <v>60880</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BAF008</t>
+          <t>BBQS0001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>RIBEYE / ENTRECOTE</t>
+          <t>BBQ SAUSAGE / SAUCISSE BBQ</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.744</v>
+        <v>0.824</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>41299.44</v>
+        <v>54911.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>MERL0001</t>
+          <t>LAML0001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAMB MERGUEZ / MERGUEZ D'AGNEAU </t>
+          <t>LAMB LEG CHOPS / GIGOT TRANCHE</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.67</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>40789.6</v>
+        <v>42621.6</v>
       </c>
     </row>
     <row r="7">
@@ -641,51 +641,105 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BEESI001</t>
+          <t>MERC0001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BEEF SIRLOIN / ALOYAU</t>
+          <t>MERGUEZ CONGELE</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.404</v>
+        <v>0.862</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>21294.84</v>
+        <v>25860</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
+          <t>BEESI001</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>BEEF SIRLOIN / ALOYAU</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>21294.84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
           <t>BRIA0001</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>AMERICAN BRISKET</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C13" s="3" t="n">
         <v>0.322</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D13" s="3" t="n">
         <v>15790.88</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>FOICG001</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>FOIE CONGELE</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>SACHET_0</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>PLASTIC BAGS</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>TOTAUX</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>449935.35</v>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="5" t="n">
+        <v>15.034</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>634164.65</v>
       </c>
     </row>
   </sheetData>
